--- a/Team-Data/2014-15/12-1-2014-15.xlsx
+++ b/Team-Data/2014-15/12-1-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -759,37 +826,37 @@
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
         <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -819,7 +886,7 @@
         <v>9</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>24</v>
@@ -935,7 +1002,7 @@
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
         <v>20</v>
@@ -950,13 +1017,13 @@
         <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>29</v>
@@ -965,22 +1032,22 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS3" t="n">
         <v>16</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -992,7 +1059,7 @@
         <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
@@ -1126,13 +1193,13 @@
         <v>18</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
@@ -1141,19 +1208,19 @@
         <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>4</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
@@ -1165,7 +1232,7 @@
         <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1177,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
@@ -1314,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1332,16 +1399,16 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS5" t="n">
         <v>11</v>
       </c>
       <c r="AT5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>20</v>
@@ -1493,25 +1560,25 @@
         <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
         <v>5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
         <v>21</v>
@@ -1526,22 +1593,22 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ6" t="n">
         <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
@@ -1675,19 +1742,19 @@
         <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>7</v>
@@ -1696,16 +1763,16 @@
         <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
         <v>23</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.765</v>
+        <v>0.722</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.48</v>
@@ -1785,40 +1852,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O8" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P8" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.767</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="U8" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="V8" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
         <v>3.2</v>
@@ -1827,34 +1894,34 @@
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.6</v>
+        <v>109.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1872,31 +1939,31 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR8" t="n">
         <v>14</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>13</v>
-      </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX8" t="n">
         <v>4</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>3</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
@@ -1905,13 +1972,13 @@
         <v>10</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -1940,154 +2007,154 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.529</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J9" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L9" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="N9" t="n">
         <v>0.342</v>
       </c>
       <c r="O9" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="P9" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="S9" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.9</v>
+        <v>45.3</v>
       </c>
       <c r="U9" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
         <v>5.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -2242,13 +2309,13 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>27</v>
@@ -2269,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
         <v>28</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2406,13 +2473,13 @@
         <v>1</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>17</v>
@@ -2430,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW11" t="n">
         <v>11</v>
@@ -2448,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0.765</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J12" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.425</v>
@@ -2513,73 +2580,73 @@
         <v>12.2</v>
       </c>
       <c r="M12" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>16.9</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.708</v>
+        <v>0.704</v>
       </c>
       <c r="R12" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T12" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U12" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V12" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="W12" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
         <v>27</v>
@@ -2594,52 +2661,52 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
         <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW12" t="n">
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2788,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2815,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="BA13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -2850,91 +2917,91 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.706</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="J14" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.381</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>17.8</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="T14" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
         <v>3.4</v>
       </c>
       <c r="Z14" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AA14" t="n">
         <v>22</v>
       </c>
-      <c r="AA14" t="n">
-        <v>22.3</v>
-      </c>
       <c r="AB14" t="n">
-        <v>105.1</v>
+        <v>103.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
         <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2943,7 +3010,7 @@
         <v>20</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2952,28 +3019,28 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
       </c>
       <c r="AS14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
         <v>29</v>
@@ -2982,28 +3049,28 @@
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.235</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>39.3</v>
+        <v>38.6</v>
       </c>
       <c r="J15" t="n">
-        <v>86.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
       <c r="O15" t="n">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="P15" t="n">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S15" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T15" t="n">
-        <v>42.3</v>
+        <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
@@ -3092,58 +3159,58 @@
         <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y15" t="n">
         <v>3.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>104.9</v>
+        <v>104.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-7.3</v>
+        <v>-7.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>3</v>
@@ -3158,13 +3225,13 @@
         <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW15" t="n">
         <v>17</v>
@@ -3173,19 +3240,19 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB15" t="n">
         <v>7</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>6</v>
-      </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>6</v>
@@ -3322,28 +3389,28 @@
         <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ16" t="n">
         <v>10</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>7</v>
@@ -3361,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>0.529</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J17" t="n">
-        <v>74.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.461</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="M17" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.369</v>
+        <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.739</v>
+        <v>0.749</v>
       </c>
       <c r="R17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="U17" t="n">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.7</v>
+        <v>96.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>20</v>
@@ -3495,61 +3562,61 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ17" t="n">
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>1</v>
@@ -3689,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
         <v>24</v>
@@ -3698,7 +3765,7 @@
         <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
@@ -3716,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY18" t="n">
         <v>20</v>
@@ -3728,10 +3795,10 @@
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -3760,106 +3827,106 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J19" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L19" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.356</v>
+        <v>0.367</v>
       </c>
       <c r="O19" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>26.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="T19" t="n">
-        <v>39.9</v>
+        <v>40.5</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="W19" t="n">
         <v>8.9</v>
       </c>
       <c r="X19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
         <v>100.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
         <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
@@ -3868,31 +3935,31 @@
         <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
         <v>6</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>20</v>
       </c>
       <c r="AR19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3901,13 +3968,13 @@
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -3942,91 +4009,91 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>0.429</v>
+        <v>0.467</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>84.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.348</v>
+        <v>0.341</v>
       </c>
       <c r="O20" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P20" t="n">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.738</v>
       </c>
       <c r="R20" t="n">
-        <v>11.1</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>40.9</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>18</v>
@@ -4035,67 +4102,67 @@
         <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
         <v>21</v>
       </c>
       <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>21</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>14</v>
-      </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
@@ -4214,19 +4281,19 @@
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>23</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>14</v>
@@ -4253,13 +4320,13 @@
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV21" t="n">
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>27</v>
@@ -4277,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -4396,13 +4463,13 @@
         <v>22</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>28</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>28</v>
@@ -4414,31 +4481,31 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>25</v>
       </c>
       <c r="AP22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
       </c>
       <c r="AR22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT22" t="n">
         <v>6</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
@@ -4450,13 +4517,13 @@
         <v>19</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -4488,82 +4555,82 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.389</v>
+        <v>0.368</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M23" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="N23" t="n">
         <v>0.373</v>
       </c>
       <c r="O23" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P23" t="n">
         <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R23" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W23" t="n">
         <v>6.3</v>
       </c>
       <c r="X23" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.2</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.8</v>
+        <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,28 +4639,28 @@
         <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
         <v>5</v>
@@ -4608,13 +4675,13 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>26</v>
@@ -4623,19 +4690,19 @@
         <v>25</v>
       </c>
       <c r="AW23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -4670,13 +4737,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -4685,22 +4752,22 @@
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J24" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.414</v>
+        <v>0.413</v>
       </c>
       <c r="L24" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.304</v>
+        <v>0.296</v>
       </c>
       <c r="O24" t="n">
         <v>16.4</v>
@@ -4709,46 +4776,46 @@
         <v>24.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.665</v>
+        <v>0.669</v>
       </c>
       <c r="R24" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S24" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="T24" t="n">
-        <v>40.1</v>
+        <v>39.9</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="W24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.5</v>
+        <v>90.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-14.4</v>
+        <v>-14.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4763,43 +4830,43 @@
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,19 +4875,19 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -4930,37 +4997,37 @@
         <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
       </c>
       <c r="AM25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4978,10 +5045,10 @@
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
         <v>21</v>
@@ -5002,7 +5069,7 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5194,7 @@
         <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
@@ -5163,19 +5230,19 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW26" t="n">
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -5300,13 +5367,13 @@
         <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>30</v>
@@ -5336,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="AR27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
         <v>4</v>
@@ -5360,7 +5427,7 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5369,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -5413,46 +5480,46 @@
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>80.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="M28" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.353</v>
+        <v>0.365</v>
       </c>
       <c r="O28" t="n">
-        <v>18.1</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>21.8</v>
       </c>
       <c r="Q28" t="n">
         <v>0.785</v>
       </c>
       <c r="R28" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>35.4</v>
+        <v>34.6</v>
       </c>
       <c r="T28" t="n">
-        <v>44.5</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
@@ -5467,19 +5534,19 @@
         <v>18.9</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5494,49 +5561,49 @@
         <v>16</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>16</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>7</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
       <c r="AT28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX28" t="n">
         <v>6</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>5</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5545,7 +5612,7 @@
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -5670,16 +5737,16 @@
         <v>3</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5703,22 +5770,22 @@
         <v>18</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>21</v>
@@ -5733,7 +5800,7 @@
         <v>2</v>
       </c>
       <c r="BC29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>0.278</v>
+        <v>0.294</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,76 +5847,76 @@
         <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>77.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.332</v>
+        <v>0.329</v>
       </c>
       <c r="O30" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="P30" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="Q30" t="n">
         <v>0.738</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T30" t="n">
-        <v>41.3</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W30" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
@@ -5864,13 +5931,13 @@
         <v>9</v>
       </c>
       <c r="AL30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
@@ -5888,16 +5955,16 @@
         <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -5906,16 +5973,16 @@
         <v>14</v>
       </c>
       <c r="AZ30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA30" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB30" t="n">
         <v>23</v>
       </c>
-      <c r="BB30" t="n">
-        <v>22</v>
-      </c>
       <c r="BC30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
@@ -5944,118 +6011,118 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="H31" t="n">
         <v>48.3</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J31" t="n">
-        <v>80.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.466</v>
+        <v>0.462</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M31" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.384</v>
+        <v>0.372</v>
       </c>
       <c r="O31" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P31" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S31" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T31" t="n">
         <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="V31" t="n">
         <v>14.6</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
         <v>23.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>9</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
         <v>16</v>
@@ -6064,40 +6131,40 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>14</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-1-2014-15</t>
+          <t>2014-12-01</t>
         </is>
       </c>
     </row>
